--- a/munkaóra.xlsx
+++ b/munkaóra.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="14310"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -81,11 +86,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0&quot;h&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.0&quot;h&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -158,6 +163,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -204,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -463,7 +478,7 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -487,7 +502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -514,7 +529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -537,11 +552,11 @@
         <v>14</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H12" si="0">SUM(B3:G3)</f>
+        <f t="shared" ref="H3:H11" si="0">SUM(B3:G3)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -568,7 +583,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -595,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -622,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -647,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -674,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -701,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -728,28 +743,34 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.5</v>
+      </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>7.8332999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:H12" si="1">SUM(C2:C11)</f>
@@ -765,47 +786,47 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38.333300000000001</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>34.5</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>230.83330000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2">
         <f>B12/$H$12</f>
-        <v>0.17040358744394618</v>
+        <v>0.18194948475804834</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:G13" si="2">C12/$H$12</f>
-        <v>0.17937219730941703</v>
+        <v>0.17328522357909365</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>0.16591928251121077</v>
+        <v>0.16028883181066161</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0.16367713004484305</v>
+        <v>0.15812276651592297</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.16591928251121077</v>
+        <v>0.16606486152561178</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>0.1547085201793722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.16028883181066161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -813,7 +834,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -821,7 +842,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -829,7 +850,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -837,7 +858,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -845,7 +866,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -853,7 +874,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -861,7 +882,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -869,7 +890,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -877,7 +898,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -885,7 +906,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -893,7 +914,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -901,7 +922,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -909,7 +930,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -917,7 +938,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -925,7 +946,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -933,7 +954,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -941,7 +962,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -949,7 +970,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -957,7 +978,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -965,7 +986,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -973,7 +994,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -981,7 +1002,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -989,7 +1010,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -997,7 +1018,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1005,7 +1026,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1013,7 +1034,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1021,7 +1042,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1029,7 +1050,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1037,7 +1058,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1045,7 +1066,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1053,7 +1074,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1061,7 +1082,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1069,7 +1090,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1077,7 +1098,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1085,7 +1106,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1093,7 +1114,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1101,7 +1122,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1109,7 +1130,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1117,7 +1138,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1125,7 +1146,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1133,7 +1154,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1141,7 +1162,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1149,7 +1170,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1157,7 +1178,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1165,7 +1186,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1173,7 +1194,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1181,7 +1202,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1189,7 +1210,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1197,7 +1218,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1205,7 +1226,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1213,7 +1234,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1221,7 +1242,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1229,7 +1250,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1237,7 +1258,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1252,24 +1273,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/munkaóra.xlsx
+++ b/munkaóra.xlsx
@@ -152,11 +152,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,351 +479,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>9.5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>7.5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>SUM(B2:G2)</f>
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>14</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H11" si="0">SUM(B3:G3)</f>
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>3.5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>1.5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2.5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>2.5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>2.5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2.5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>1.3332999999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>2.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>7.8332999999999995</v>
+        <v>10.833299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
         <v>42</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" ref="C12:H12" si="1">SUM(C2:C11)</f>
-        <v>40</v>
-      </c>
-      <c r="D12" s="3">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>38.333300000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>230.83330000000001</v>
+        <v>233.83330000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <f>B12/$H$12</f>
-        <v>0.18194948475804834</v>
-      </c>
-      <c r="C13" s="2">
+        <v>0.17961513608198659</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" ref="C13:G13" si="2">C12/$H$12</f>
-        <v>0.17328522357909365</v>
-      </c>
-      <c r="D13" s="2">
+        <v>0.18389168694108152</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="2"/>
-        <v>0.16028883181066161</v>
-      </c>
-      <c r="E13" s="2">
+        <v>0.158232381786512</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
-        <v>0.15812276651592297</v>
-      </c>
-      <c r="F13" s="2">
+        <v>0.15609410635696455</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0.16606486152561178</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0.16393430704694328</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>0.16028883181066161</v>
+        <v>0.158232381786512</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
